--- a/data/trans_dic/P70B_R2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R2_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.04678593594292253</v>
+        <v>0.04678593594292254</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.04755269451502804</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02257756763613425</v>
+        <v>0.02257535904905494</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02667651865221653</v>
+        <v>0.02573895754978455</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0285959030608897</v>
+        <v>0.02768517725531408</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08602790219326149</v>
+        <v>0.08698667588778927</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08780391593058887</v>
+        <v>0.0862932145840372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07473199785469642</v>
+        <v>0.07087402682125851</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.2339846324563394</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2364131212699811</v>
+        <v>0.2364131212699812</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2349860000401781</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1702836576950058</v>
+        <v>0.1627560245356576</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1766928230354477</v>
+        <v>0.1859346228219655</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1903259591049674</v>
+        <v>0.1944232154413868</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3162963429519677</v>
+        <v>0.306958331983655</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3021633678903075</v>
+        <v>0.3024347645071148</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2905519015608677</v>
+        <v>0.286743014405918</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.2902379272441281</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2567060763137257</v>
+        <v>0.2567060763137258</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2752199259108419</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2196842278317494</v>
+        <v>0.2188809828666538</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.191853607581163</v>
+        <v>0.1937748743548894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2288592378864417</v>
+        <v>0.2261853743561152</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3653418924000001</v>
+        <v>0.3738426273101783</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3255368972162216</v>
+        <v>0.325441000355793</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3274687678309498</v>
+        <v>0.3267071456356946</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1219934796282908</v>
+        <v>0.120203904986924</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1405209471428497</v>
+        <v>0.1395038708592795</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1474779546996617</v>
+        <v>0.1434419853980025</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2815550612826612</v>
+        <v>0.2828803750195054</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2489843874553956</v>
+        <v>0.2510830063616986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.251829429287371</v>
+        <v>0.251533793417136</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.0444557485086936</v>
+        <v>0.04445574850869362</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03301988303843011</v>
+        <v>0.0330198830384301</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03910071614499121</v>
+        <v>0.0391007161449912</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02129838406639886</v>
+        <v>0.02120466936403058</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01473503864126753</v>
+        <v>0.01439777364299558</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02183514991674206</v>
+        <v>0.02289550995492552</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08791848539164344</v>
+        <v>0.08552356863651808</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07943072785563111</v>
+        <v>0.07119652118114576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06203233750852721</v>
+        <v>0.06450973147816047</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.2917049785661364</v>
+        <v>0.2917049785661365</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.246533324746507</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2210648798706999</v>
+        <v>0.2181997838803858</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.170164770909361</v>
+        <v>0.168377329323435</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2259675348996772</v>
+        <v>0.2171267265936503</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3735337553496049</v>
+        <v>0.36752684741088</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3266182261950036</v>
+        <v>0.3318249101284174</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3364576715744496</v>
+        <v>0.3288827437632392</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1018164114715468</v>
+        <v>0.1045073332239537</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09354742821123919</v>
+        <v>0.08894416135289369</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.106050263320608</v>
+        <v>0.1066446115719161</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1860483551288108</v>
+        <v>0.1857031501006075</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1514463207374953</v>
+        <v>0.1508111812909484</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1557186138718761</v>
+        <v>0.1556425717587753</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04407311040704294</v>
+        <v>0.04540235301532641</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0910920513865813</v>
+        <v>0.08996871529220007</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06853358918095689</v>
+        <v>0.0697899029840709</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09553242197215407</v>
+        <v>0.09642547431456731</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1554214597975959</v>
+        <v>0.1545957292253319</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1096025798168837</v>
+        <v>0.1099212245707061</v>
       </c>
     </row>
     <row r="28">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1465927778419483</v>
+        <v>0.1465927778419482</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.1456762339920042</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1267502103546216</v>
+        <v>0.1286145764652253</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1293518495717249</v>
+        <v>0.129112472161301</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1346764966090855</v>
+        <v>0.1341283474127893</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1644365596317376</v>
+        <v>0.1687750049084545</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1609910208544946</v>
+        <v>0.1629280920102051</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1591611997971082</v>
+        <v>0.1595239037408558</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4036</v>
+        <v>3894</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10047</v>
+        <v>9727</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17210</v>
+        <v>17402</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13283</v>
+        <v>13054</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26256</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>41835</v>
+        <v>39986</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30459</v>
+        <v>32053</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>79569</v>
+        <v>81282</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>77708</v>
+        <v>75414</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>52089</v>
+        <v>52136</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>121470</v>
+        <v>119878</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32580</v>
+        <v>32460</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23080</v>
+        <v>23311</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>61472</v>
+        <v>60754</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54181</v>
+        <v>55442</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39162</v>
+        <v>39150</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>87958</v>
+        <v>87754</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25525</v>
+        <v>25151</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24809</v>
+        <v>24629</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56894</v>
+        <v>55337</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>58910</v>
+        <v>59188</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43958</v>
+        <v>44328</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>97151</v>
+        <v>97037</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2849</v>
+        <v>2836</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1736</v>
+        <v>1696</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5492</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11759</v>
+        <v>11438</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9356</v>
+        <v>8386</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15603</v>
+        <v>16226</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>29741</v>
+        <v>29356</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>14709</v>
+        <v>14554</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>49933</v>
+        <v>47979</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>50254</v>
+        <v>49446</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>28232</v>
+        <v>28682</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>74348</v>
+        <v>72674</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>39062</v>
+        <v>40094</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33388</v>
+        <v>31745</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>78536</v>
+        <v>78977</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>71377</v>
+        <v>71244</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>54053</v>
+        <v>53826</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>115319</v>
+        <v>115263</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>19894</v>
+        <v>20494</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>28413</v>
+        <v>28063</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>52312</v>
+        <v>53271</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>43122</v>
+        <v>43526</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>48479</v>
+        <v>48221</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>83661</v>
+        <v>83904</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>241660</v>
+        <v>245215</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>193195</v>
+        <v>192838</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>457920</v>
+        <v>456056</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>313512</v>
+        <v>321784</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>240450</v>
+        <v>243343</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>541172</v>
+        <v>542405</v>
       </c>
     </row>
     <row r="40">
